--- a/kamus besar.xlsx
+++ b/kamus besar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Manpower Management System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C56DD14-959D-4C00-9B33-B50E0B3FA4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC1321B-8CAC-47BF-9FE1-576DDDCECAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29B71BA4-4D23-4FFC-9965-B7529AF1B19D}"/>
   </bookViews>
@@ -125,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -166,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E9BDA2-1A2A-4799-BEF5-4AC392E0850C}">
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
